--- a/Vermogen opnemen incl inflatie 20230721.xlsx
+++ b/Vermogen opnemen incl inflatie 20230721.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gert\Mijn documenten\Financien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398FA802-1B65-44D1-9FBD-D3DF85F0105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F88C0-3F29-46AD-BFC9-E702FAE541C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
